--- a/public/preprocessing/@adjie_pangestu.xlsx
+++ b/public/preprocessing/@adjie_pangestu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19135</v>
+        <v>31972</v>
       </c>
       <c r="C2" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kakkkakkkakakk maap lagi ml</t>
+          <t>menunggu</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kakkkakkkakakk', 'maap', 'lagi', 'ml']</t>
+          <t>['menunggu']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['menunggu']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['kakkkakkkakakk', 'maap', 'ml']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['kakkkakkkakakk', 'maap', 'ml']</t>
+          <t>['menunggu']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['tunggu']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19136</v>
+        <v>31973</v>
       </c>
       <c r="C3" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>lagi marah karena saya gendut cafe dpakar</t>
+          <t>sambil nungguya sambil gaya</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['lagi', 'marah', 'karena', 'saya', 'gendut', 'cafe', 'dpakar']</t>
+          <t>['sambil', 'nungguya', 'sambil', 'gaya']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['sambil', 'nungguya', 'sambil', 'gaya']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['marah', 'gendut', 'cafe', 'dpakar']</t>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['marah', 'gendut', 'cafe', 'dpakar']</t>
+          <t>['nungguya', 'gaya']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['nungguya', 'gaya']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19137</v>
+        <v>31974</v>
       </c>
       <c r="C4" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>akhirnya kesampaian juga maen kolam cetek cipanas garut jawa barat</t>
+          <t>just posted  photo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['akhirnya', 'kesampaian', 'juga', 'maen', 'kolam', 'cetek', 'cipanas', 'garut', 'jawa', 'barat']</t>
+          <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['maen', 'kolam', 'cetek', 'cipanas', 'garut', 'jawa', 'barat']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['maen', 'kolam', 'cetek', 'cipanas', 'garut', 'jawa', 'barat']</t>
+          <t>['just', 'posted', 'photo']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19138</v>
+        <v>31975</v>
       </c>
       <c r="C5" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>sieun bade nyebrang</t>
+          <t>kakkkakkkakakk maap lagi ml</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['sieun', 'bade', 'nyebrang']</t>
+          <t>['kakkkakkkakakk', 'maap', 'lagi', 'ml']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kakkkakkkakakk', 'maaf', 'lagi', 'ml']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['sieun', 'bade', 'nyebrang']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['sieun', 'bade', 'nyebrang']</t>
+          <t>['kakkkakkkakakk', 'maaf', 'ml']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['kakkkakkkakakk', 'maaf', 'ml']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19139</v>
+        <v>31976</v>
       </c>
       <c r="C6" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>awalnya muka ngantukketemu kopi jadi terang benderang priangantimur batu tumpang cikaja</t>
+          <t>lagi marah karena saya gendut cafe dpakar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['awalnya', 'muka', 'ngantukketemu', 'kopi', 'jadi', 'terang', 'benderang', 'priangantimur', 'batu', 'tumpang', 'cikaja']</t>
+          <t>['lagi', 'marah', 'karena', 'saya', 'gendut', 'cafe', 'dpakar']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['lagi', 'marah', 'karena', 'saya', 'gendut', 'cafe', 'dpakar']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['muka', 'ngantukketemu', 'kopi', 'terang', 'benderang', 'priangantimur', 'batu', 'tumpang', 'cikaja']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['muka', 'ngantukketemu', 'kopi', 'terang', 'benderang', 'priangantimur', 'batu', 'tumpang', 'cikaja']</t>
+          <t>['marah', 'gendut', 'cafe', 'dpakar']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['marah', 'gendut', 'cafe', 'dpakar']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19140</v>
+        <v>31977</v>
       </c>
       <c r="C7" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>itu gunung apa bukit ya cikajang garut jawabarat</t>
+          <t>akhirnya kesampaian juga maen kolam cetek cipanas garut jawa barat</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['itu', 'gunung', 'apa', 'bukit', 'ya', 'cikajang', 'garut', 'jawabarat']</t>
+          <t>['akhirnya', 'kesampaian', 'juga', 'maen', 'kolam', 'cetek', 'cipanas', 'garut', 'jawa', 'barat']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['akhirnya', 'kesampaian', 'juga', 'main', 'kolam', 'cetek', 'cipanas', 'garut', 'jawa', 'barat']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['gunung', 'bukit', 'cikajang', 'garut', 'jawabarat']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['gunung', 'bukit', 'cikajang', 'garut', 'jawabarat']</t>
+          <t>['main', 'kolam', 'cetek', 'cipanas', 'garut', 'jawa', 'barat']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['main', 'kolam', 'cetek', 'cipanas', 'garut', 'jawa', 'barat']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19141</v>
+        <v>31978</v>
       </c>
       <c r="C8" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>nggak akan pernah bosen meng edukasi tentang covidpencegahan ataupun penanganan saat terinfeksi covid</t>
+          <t>sieun bade nyebrang</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['nggak', 'akan', 'pernah', 'bosen', 'meng', 'edukasi', 'tentang', 'covidpencegahan', 'ataupun', 'penanganan', 'saat', 'terinfeksi', 'covid']</t>
+          <t>['sieun', 'bade', 'nyebrang']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['sieun', 'bade', 'nyebrang']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['nggak', 'bosen', 'meng', 'edukasi', 'covidpencegahan', 'penanganan', 'terinfeksi', 'covid']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['nggak', 'bosen', 'meng', 'edukasi', 'covidpencegahan', 'tangan', 'infeksi', 'covid']</t>
+          <t>['sieun', 'bade', 'nyebrang']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['sieun', 'bade', 'nyebrang']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19142</v>
+        <v>31979</v>
       </c>
       <c r="C9" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ngopicombipinggir jalan kota bandungperfecto bandung</t>
+          <t>awalnya muka ngantukketemu kopi jadi terang benderang priangantimur batu tumpang cikaja</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['ngopicombipinggir', 'jalan', 'kota', 'bandungperfecto', 'bandung']</t>
+          <t>['awalnya', 'muka', 'ngantukketemu', 'kopi', 'jadi', 'terang', 'benderang', 'priangantimur', 'batu', 'tumpang', 'cikaja']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['awalnya', 'muka', 'ngantukketemu', 'kopi', 'jadi', 'terang', 'benderang', 'priangantimur', 'batu', 'tumpang', 'cikaja']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['ngopicombipinggir', 'jalan', 'kota', 'bandungperfecto', 'bandung']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['ngopicombipinggir', 'jalan', 'kota', 'bandungperfecto', 'bandung']</t>
+          <t>['muka', 'ngantukketemu', 'kopi', 'terang', 'benderang', 'priangantimur', 'batu', 'tumpang', 'cikaja']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['muka', 'ngantukketemu', 'kopi', 'terang', 'benderang', 'priangantimur', 'batu', 'tumpang', 'cikaja']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19143</v>
+        <v>31980</v>
       </c>
       <c r="C10" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ngopi di tempat yang unik sama dengan cipaganti</t>
+          <t>itu gunung apa bukit ya cikajang garut jawabarat</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['ngopi', 'di', 'tempat', 'yang', 'unik', 'sama', 'dengan', 'cipaganti']</t>
+          <t>['itu', 'gunung', 'apa', 'bukit', 'ya', 'cikajang', 'garut', 'jawabarat']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['itu', 'gunung', 'apa', 'bukit', 'ya', 'cikajang', 'garut', 'jawa, barat']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['ngopi', 'unik', 'cipaganti']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['ngopi', 'unik', 'cipaganti']</t>
+          <t>['gunung', 'bukit', 'cikajang', 'garut', 'jawa, barat']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['gunung', 'bukit', 'cikajang', 'garut', 'jawa barat']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19144</v>
+        <v>31981</v>
       </c>
       <c r="C11" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>masih sisa anak bandbersama cahaya</t>
+          <t>nggak akan pernah bosen meng edukasi tentang covidpencegahan ataupun penanganan saat terinfeksi covid</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['masih', 'sisa', 'anak', 'bandbersama', 'cahaya']</t>
+          <t>['nggak', 'akan', 'pernah', 'bosen', 'meng', 'edukasi', 'tentang', 'covidpencegahan', 'ataupun', 'penanganan', 'saat', 'terinfeksi', 'covid']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['enggak', 'akan', 'pernah', 'bosan', 'meng', 'edukasi', 'tentang', 'covidpencegahan', 'ataupun', 'penanganan', 'saat', 'terinfeksi', 'covid']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['sisa', 'anak', 'bandbersama', 'cahaya']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['sisa', 'anak', 'bandbersama', 'cahaya']</t>
+          <t>['bosan', 'meng', 'edukasi', 'covidpencegahan', 'penanganan', 'terinfeksi', 'covid']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['bosan', 'meng', 'edukasi', 'covidpencegahan', 'tangan', 'infeksi', 'covid']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19145</v>
+        <v>31982</v>
       </c>
       <c r="C12" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>hito and feli wedding</t>
+          <t>ngopicombipinggir jalan kota bandungperfecto bandung</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['hito', 'and', 'feli', 'wedding']</t>
+          <t>['ngopicombipinggir', 'jalan', 'kota', 'bandungperfecto', 'bandung']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['ngopicombipinggir', 'jalan', 'kota', 'bandungperfecto', 'bandung']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['hito', 'and', 'feli', 'wedding']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['hito', 'and', 'feli', 'wedding']</t>
+          <t>['ngopicombipinggir', 'jalan', 'kota', 'bandungperfecto', 'bandung']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['ngopicombipinggir', 'jalan', 'kota', 'bandungperfecto', 'bandung']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19146</v>
+        <v>31983</v>
       </c>
       <c r="C13" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>tim cinta karena cinta</t>
+          <t>ngopi di tempat yang unik sama dengan cipaganti</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['tim', 'cinta', 'karena', 'cinta']</t>
+          <t>['ngopi', 'di', 'tempat', 'yang', 'unik', 'sama', 'dengan', 'cipaganti']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+          <t>['minum, kopi', 'di', 'tempat', 'yang', 'unik', 'sama', 'dengan', 'cipaganti']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['tim', 'cinta', 'cinta']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['tim', 'cinta', 'cinta']</t>
+          <t>['minum, kopi', 'unik', 'cipaganti']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['minum kopi', 'unik', 'cipaganti']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19147</v>
+        <v>31984</v>
       </c>
       <c r="C14" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>bersama cogan masakini abraham orasudiro</t>
+          <t>masih sisa anak bandbersama cahaya</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['bersama', 'cogan', 'masakini', 'abraham', 'orasudiro']</t>
+          <t>['masih', 'sisa', 'anak', 'bandbersama', 'cahaya']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['masih', 'sisa', 'anak', 'bandbersama', 'cahaya']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['cogan', 'masakini', 'abraham', 'orasudiro']</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['cogan', 'masakini', 'abraham', 'orasudiro']</t>
+          <t>['sisa', 'anak', 'bandbersama', 'cahaya']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['sisa', 'anak', 'bandbersama', 'cahaya']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19148</v>
+        <v>31985</v>
       </c>
       <c r="C15" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>wefie sisa semalam</t>
+          <t>hito and feli wedding</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['wefie', 'sisa', 'semalam']</t>
+          <t>['hito', 'and', 'feli', 'wedding']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['hito', 'and', 'feli', 'wedding']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['wefie', 'sisa', 'semalam']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['wefie', 'sisa', 'malam']</t>
+          <t>['hito', 'and', 'feli', 'wedding']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['hito', 'and', 'feli', 'wedding']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19149</v>
+        <v>31986</v>
       </c>
       <c r="C16" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>kalian anak muda luar biasa werdrayana</t>
+          <t>tim cinta karena cinta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['kalian', 'anak', 'muda', 'luar', 'biasa', 'werdrayana']</t>
+          <t>['tim', 'cinta', 'karena', 'cinta']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['tim', 'cinta', 'karena', 'cinta']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['anak', 'muda', 'werdrayana']</t>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['anak', 'muda', 'werdrayana']</t>
+          <t>['tim', 'cinta', 'cinta']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['tim', 'cinta', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19150</v>
+        <v>31987</v>
       </c>
       <c r="C17" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>om band dan tante band partner kerja yang seruuu</t>
+          <t>bersama cogan masakini abraham orasudiro</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['om', 'band', 'dan', 'tante', 'band', 'partner', 'kerja', 'yang', 'seruuu']</t>
+          <t>['bersama', 'cogan', 'masakini', 'abraham', 'orasudiro']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['bersama', 'cowok, ganteng', 'masakini', 'abraham', 'orasudiro']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['om', 'band', 'tante', 'band', 'partner', 'kerja', 'seruuu']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['om', 'band', 'tante', 'band', 'partner', 'kerja', 'seruuu']</t>
+          <t>['cowok, ganteng', 'masakini', 'abraham', 'orasudiro']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['cowok ganteng', 'masakini', 'abraham', 'orasudiro']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19151</v>
+        <v>31988</v>
       </c>
       <c r="C18" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>agak gugup dan grogi</t>
+          <t>wefie sisa semalam</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['agak', 'gugup', 'dan', 'grogi']</t>
+          <t>['wefie', 'sisa', 'semalam']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['wifi', 'sisa', 'semalam']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['gugup', 'grogi']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['gugup', 'grogi']</t>
+          <t>['wifi', 'sisa', 'semalam']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['wifi', 'sisa', 'malam']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19152</v>
+        <v>31989</v>
       </c>
       <c r="C19" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>senior panutan</t>
+          <t>kalian anak muda luar biasa werdrayana</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['senior', 'panutan']</t>
+          <t>['kalian', 'anak', 'muda', 'luar', 'biasa', 'werdrayana']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kalian', 'anak', 'muda', 'luar', 'biasa', 'werdrayana']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['senior', 'panutan']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['senior', 'panutan']</t>
+          <t>['anak', 'muda', 'werdrayana']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['anak', 'muda', 'werdrayana']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19153</v>
+        <v>31990</v>
       </c>
       <c r="C20" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>om bandmama bandpapa band</t>
+          <t>om band dan tante band partner kerja yang seruuu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['om', 'bandmama', 'bandpapa', 'band']</t>
+          <t>['om', 'band', 'dan', 'tante', 'band', 'partner', 'kerja', 'yang', 'seruuu']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['om', 'band', 'dan', 'tante', 'band', 'partner', 'kerja', 'yang', 'seru']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['om', 'bandmama', 'bandpapa', 'band']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['om', 'bandmama', 'bandpapa', 'band']</t>
+          <t>['om', 'band', 'tante', 'band', 'partner', 'kerja', 'seru']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['om', 'band', 'tante', 'band', 'partner', 'kerja', 'seru']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19154</v>
+        <v>31991</v>
       </c>
       <c r="C21" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>anak band dan om band</t>
+          <t>agak gugup dan grogi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'dan', 'om', 'band']</t>
+          <t>['agak', 'gugup', 'dan', 'grogi']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+          <t>['agak', 'gugup', 'dan', 'grogi']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'om', 'band']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'om', 'band']</t>
+          <t>['gugup', 'grogi']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['gugup', 'grogi']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19155</v>
+        <v>31992</v>
       </c>
       <c r="C22" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>kelamaan nunggu callingan syuting anak band hari ini ngegas duluu ahh</t>
+          <t>senior panutan</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['kelamaan', 'nunggu', 'callingan', 'syuting', 'anak', 'band', 'hari', 'ini', 'ngegas', 'duluu', 'ahh']</t>
+          <t>['senior', 'panutan']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['senior', 'panutan']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['nunggu', 'callingan', 'syuting', 'anak', 'band', 'ngegas', 'duluu', 'ahh']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['nunggu', 'callingan', 'syuting', 'anak', 'band', 'ngegas', 'duluu', 'ahh']</t>
+          <t>['senior', 'panutan']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['senior', 'panutan']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19156</v>
+        <v>31993</v>
       </c>
       <c r="C23" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>anak band malam iniseruu</t>
+          <t>om bandmama bandpapa band</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'malam', 'iniseruu']</t>
+          <t>['om', 'bandmama', 'bandpapa', 'band']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['om', 'bandmama', 'bandpapa', 'band']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['anak', 'band', 'malam', 'iniseruu']</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'malam', 'iniseruu']</t>
+          <t>['om', 'bandmama', 'bandpapa', 'band']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['om', 'bandmama', 'bandpapa', 'band']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19157</v>
+        <v>31994</v>
       </c>
       <c r="C24" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>anak band malam ini di sctv</t>
+          <t>anak band dan om band</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
+          <t>['anak', 'band', 'dan', 'om', 'band']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['anak', 'band', 'dan', 'om', 'band']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'malam', 'sctv']</t>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'malam', 'sctv']</t>
+          <t>['anak', 'band', 'om', 'band']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'om', 'band']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19158</v>
+        <v>31995</v>
       </c>
       <c r="C25" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>saksikan anak band malam ini di sctv</t>
+          <t>kelamaan nunggu callingan syuting anak band hari ini ngegas duluu ahh</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['saksikan', 'anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
+          <t>['kelamaan', 'nunggu', 'callingan', 'syuting', 'anak', 'band', 'hari', 'ini', 'ngegas', 'duluu', 'ahh']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kelamaan', 'menunggu', 'callingan', 'syuting', 'anak', 'band', 'hari', 'ini', 'marah', 'dulu', 'ah']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['saksikan', 'anak', 'band', 'malam', 'sctv']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['saksi', 'anak', 'band', 'malam', 'sctv']</t>
+          <t>['menunggu', 'callingan', 'syuting', 'anak', 'band', 'marah', 'ah']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['tunggu', 'callingan', 'syuting', 'anak', 'band', 'marah', 'ah']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19159</v>
+        <v>31996</v>
       </c>
       <c r="C26" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>just posted  photo</t>
+          <t>anak band malam iniseruu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['just', 'posted', 'photo']</t>
+          <t>['anak', 'band', 'malam', 'iniseruu']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['anak', 'band', 'malam', 'iniseruu']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['just', 'posted', 'photo']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['just', 'posted', 'photo']</t>
+          <t>['anak', 'band', 'malam', 'iniseruu']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'malam', 'iniseruu']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19160</v>
+        <v>31997</v>
       </c>
       <c r="C27" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>the junas ciawi jawa barat indonesia</t>
+          <t>anak band malam ini di sctv</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['the', 'junas', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
+          <t>['anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['the', 'junas', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['the', 'junas', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
+          <t>['anak', 'band', 'malam', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'malam', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19161</v>
+        <v>31998</v>
       </c>
       <c r="C28" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>anak band di sctv</t>
+          <t>saksikan anak band malam ini di sctv</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'di', 'sctv']</t>
+          <t>['saksikan', 'anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['saksikan', 'anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'sctv']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'sctv']</t>
+          <t>['saksikan', 'anak', 'band', 'malam', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['saksi', 'anak', 'band', 'malam', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19162</v>
+        <v>31999</v>
       </c>
       <c r="C29" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>om band ciawi jawa barat indonesia</t>
+          <t>just posted  photo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['om', 'band', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
+          <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['om', 'band', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['om', 'band', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
+          <t>['just', 'posted', 'photo']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19163</v>
+        <v>32000</v>
       </c>
       <c r="C30" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>menunggu panggilan coffee</t>
+          <t>the junas ciawi jawa barat indonesia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['menunggu', 'panggilan', 'coffee']</t>
+          <t>['the', 'junas', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['the', 'junas', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['menunggu', 'panggilan', 'coffee']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['tunggu', 'panggil', 'coffee']</t>
+          <t>['the', 'junas', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['the', 'junas', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19164</v>
+        <v>32001</v>
       </c>
       <c r="C31" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>menikmati suasana mendung kota bogor bambang ao</t>
+          <t>anak band di sctv</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['menikmati', 'suasana', 'mendung', 'kota', 'bogor', 'bambang', 'ao']</t>
+          <t>['anak', 'band', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['anak', 'band', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['menikmati', 'suasana', 'mendung', 'kota', 'bogor', 'bambang', 'ao']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['nikmat', 'suasana', 'mendung', 'kota', 'bogor', 'bambang', 'ao']</t>
+          <t>['anak', 'band', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19165</v>
+        <v>32002</v>
       </c>
       <c r="C32" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>muka bantal vs kopi</t>
+          <t>om band ciawi jawa barat indonesia</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['muka', 'bantal', 'vs', 'kopi']</t>
+          <t>['om', 'band', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['om', 'band', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['muka', 'bantal', 'vs', 'kopi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['muka', 'bantal', 'vs', 'kopi']</t>
+          <t>['om', 'band', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['om', 'band', 'ciawi', 'jawa', 'barat', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19166</v>
+        <v>32003</v>
       </c>
       <c r="C33" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>pasukan the junas</t>
+          <t>menunggu panggilan coffee</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['pasukan', 'the', 'junas']</t>
+          <t>['menunggu', 'panggilan', 'coffee']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['menunggu', 'panggilan', 'coffee']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['pasukan', 'the', 'junas']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['pasu', 'the', 'junas']</t>
+          <t>['menunggu', 'panggilan', 'coffee']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['tunggu', 'panggil', 'coffee']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19167</v>
+        <v>32004</v>
       </c>
       <c r="C34" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>anak band now di sctv</t>
+          <t>menikmati suasana mendung kota bogor bambang ao</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'now', 'di', 'sctv']</t>
+          <t>['menikmati', 'suasana', 'mendung', 'kota', 'bogor', 'bambang', 'ao']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['menikmati', 'suasana', 'mendung', 'kota', 'bogor', 'bambang', 'ao']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'now', 'sctv']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'now', 'sctv']</t>
+          <t>['menikmati', 'suasana', 'mendung', 'kota', 'bogor', 'bambang', 'ao']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['nikmat', 'suasana', 'mendung', 'kota', 'bogor', 'bambang', 'ao']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19168</v>
+        <v>32005</v>
       </c>
       <c r="C35" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>lagi jaga lapaknya mang odet</t>
+          <t>muka bantal vs kopi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['lagi', 'jaga', 'lapaknya', 'mang', 'odet']</t>
+          <t>['muka', 'bantal', 'vs', 'kopi']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['muka', 'bantal', 'lawan', 'kopi']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['jaga', 'lapaknya', 'mang', 'odet']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['jaga', 'lapak', 'mang', 'odet']</t>
+          <t>['muka', 'bantal', 'lawan', 'kopi']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['muka', 'bantal', 'lawan', 'kopi']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19169</v>
+        <v>32006</v>
       </c>
       <c r="C36" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>keluarga ketjil di anak band</t>
+          <t>pasukan the junas</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['keluarga', 'ketjil', 'di', 'anak', 'band']</t>
+          <t>['pasukan', 'the', 'junas']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['pasukan', 'the', 'junas']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['keluarga', 'ketjil', 'anak', 'band']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['keluarga', 'ketjil', 'anak', 'band']</t>
+          <t>['pasukan', 'the', 'junas']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['pasu', 'the', 'junas']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19170</v>
+        <v>32007</v>
       </c>
       <c r="C37" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>anak band now</t>
+          <t>anak band now di sctv</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'now']</t>
+          <t>['anak', 'band', 'now', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['anak', 'band', 'now', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'now']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'now']</t>
+          <t>['anak', 'band', 'now', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'now', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19171</v>
+        <v>32008</v>
       </c>
       <c r="C38" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>pasukan anak band pengejar rating</t>
+          <t>lagi jaga lapaknya mang odet</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['pasukan', 'anak', 'band', 'pengejar', 'rating']</t>
+          <t>['lagi', 'jaga', 'lapaknya', 'mang', 'odet']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['lagi', 'jaga', 'lapaknya', 'mang', 'odet']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['pasukan', 'anak', 'band', 'pengejar', 'rating']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['pasu', 'anak', 'band', 'kejar', 'rating']</t>
+          <t>['jaga', 'lapaknya', 'mang', 'odet']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['jaga', 'lapak', 'mang', 'odet']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19172</v>
+        <v>32009</v>
       </c>
       <c r="C39" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>episode anak band sore ini</t>
+          <t>keluarga ketjil di anak band</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['episode', 'anak', 'band', 'sore', 'ini']</t>
+          <t>['keluarga', 'ketjil', 'di', 'anak', 'band']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['keluarga', 'ketjil', 'di', 'anak', 'band']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['episode', 'anak', 'band', 'sore']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['episode', 'anak', 'band', 'sore']</t>
+          <t>['keluarga', 'ketjil', 'anak', 'band']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['keluarga', 'ketjil', 'anak', 'band']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19173</v>
+        <v>32010</v>
       </c>
       <c r="C40" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>anak band tayang jam di sctv</t>
+          <t>anak band now</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'tayang', 'jam', 'di', 'sctv']</t>
+          <t>['anak', 'band', 'now']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['anak', 'band', 'now']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'tayang', 'jam', 'sctv']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'tayang', 'jam', 'sctv']</t>
+          <t>['anak', 'band', 'now']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'now']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19174</v>
+        <v>32011</v>
       </c>
       <c r="C41" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>sambil nunggu action bagaya dulu sikit tempat mengais rejeki</t>
+          <t>pasukan anak band pengejar rating</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['sambil', 'nunggu', 'action', 'bagaya', 'dulu', 'sikit', 'tempat', 'mengais', 'rejeki']</t>
+          <t>['pasukan', 'anak', 'band', 'pengejar', 'rating']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['pasukan', 'anak', 'band', 'pengejar', 'rating']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['nunggu', 'action', 'bagaya', 'sikit', 'mengais', 'rejeki']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['nunggu', 'action', 'bagaya', 'sikit', 'kais', 'rejeki']</t>
+          <t>['pasukan', 'anak', 'band', 'pengejar', 'rating']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['pasu', 'anak', 'band', 'kejar', 'rating']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19175</v>
+        <v>32012</v>
       </c>
       <c r="C42" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>caci maki tidak akan memperbaiki yang telah terjadi tangisan juga tidak akan mengembalikan yang sudah sudah lewat</t>
+          <t>episode anak band sore ini</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['caci', 'maki', 'tidak', 'akan', 'memperbaiki', 'yang', 'telah', 'terjadi', 'tangisan', 'juga', 'tidak', 'akan', 'mengembalikan', 'yang', 'sudah', 'sudah', 'lewat']</t>
+          <t>['episode', 'anak', 'band', 'sore', 'ini']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
+          <t>['episode', 'anak', 'band', 'sore', 'ini']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['caci', 'maki', 'memperbaiki', 'tangisan', 'mengembalikan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['caci', 'maki', 'baik', 'tangis', 'kembali']</t>
+          <t>['episode', 'anak', 'band', 'sore']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['episode', 'anak', 'band', 'sore']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19176</v>
+        <v>32013</v>
       </c>
       <c r="C43" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>anak band malam ini di sctv</t>
+          <t>anak band tayang jam di sctv</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
+          <t>['anak', 'band', 'tayang', 'jam', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['anak', 'band', 'tayang', 'jam', 'di', 'sctv']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['anak', 'band', 'malam', 'sctv']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'malam', 'sctv']</t>
+          <t>['anak', 'band', 'tayang', 'jam', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'tayang', 'jam', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19177</v>
+        <v>32014</v>
       </c>
       <c r="C44" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>muka happy ketemu tempat ngopi asik tempat janjian</t>
+          <t>sambil nunggu action bagaya dulu sikit tempat mengais rejeki</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['muka', 'happy', 'ketemu', 'tempat', 'ngopi', 'asik', 'tempat', 'janjian']</t>
+          <t>['sambil', 'nunggu', 'action', 'bagaya', 'dulu', 'sikit', 'tempat', 'mengais', 'rejeki']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['sambil', 'menunggu', 'action', 'bagaya', 'dulu', 'sikit', 'tempat', 'mengais', 'rejeki']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['muka', 'happy', 'ketemu', 'ngopi', 'asik', 'janjian']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['muka', 'happy', 'ketemu', 'ngopi', 'asik', 'janji']</t>
+          <t>['menunggu', 'action', 'bagaya', 'sikit', 'mengais', 'rejeki']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['tunggu', 'action', 'bagaya', 'sikit', 'kais', 'rejeki']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19178</v>
+        <v>32015</v>
       </c>
       <c r="C45" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>pada kumpulada apa ya</t>
+          <t>caci maki tidak akan memperbaiki yang telah terjadi tangisan juga tidak akan mengembalikan yang sudah sudah lewat</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['pada', 'kumpulada', 'apa', 'ya']</t>
+          <t>['caci', 'maki', 'tidak', 'akan', 'memperbaiki', 'yang', 'telah', 'terjadi', 'tangisan', 'juga', 'tidak', 'akan', 'mengembalikan', 'yang', 'sudah', 'sudah', 'lewat']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['caci', 'maki', 'tidak', 'akan', 'memperbaiki', 'yang', 'telah', 'terjadi', 'tangisan', 'juga', 'tidak', 'akan', 'mengembalikan', 'yang', 'sudah', 'sudah', 'lewat']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['kumpulada']</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['kumpulada']</t>
+          <t>['caci', 'maki', 'memperbaiki', 'tangisan', 'mengembalikan']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['caci', 'maki', 'baik', 'tangis', 'kembali']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19179</v>
+        <v>32016</v>
       </c>
       <c r="C46" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>apakah dia zafina</t>
+          <t>anak band malam ini di sctv</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['apakah', 'dia', 'zafina']</t>
+          <t>['anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['zafina']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['zafina']</t>
+          <t>['anak', 'band', 'malam', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'malam', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19180</v>
+        <v>32017</v>
       </c>
       <c r="C47" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>anak scooter kebanyakan gaya</t>
+          <t>muka happy ketemu tempat ngopi asik tempat janjian</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['anak', 'scooter', 'kebanyakan', 'gaya']</t>
+          <t>['muka', 'happy', 'ketemu', 'tempat', 'ngopi', 'asik', 'tempat', 'janjian']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['muka', 'happy', 'ketemu', 'tempat', 'minum, kopi', 'asyik', 'tempat', 'janjian']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['anak', 'scooter', 'kebanyakan', 'gaya']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['anak', 'scooter', 'banyak', 'gaya']</t>
+          <t>['muka', 'happy', 'ketemu', 'minum, kopi', 'asyik', 'janjian']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['muka', 'happy', 'ketemu', 'minum kopi', 'asyik', 'janji']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19181</v>
+        <v>32018</v>
       </c>
       <c r="C48" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>anak band malam ini di sctv</t>
+          <t>pada kumpulada apa ya</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
+          <t>['pada', 'kumpulada', 'apa', 'ya']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['pada', 'kumpulada', 'apa', 'ya']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'malam', 'sctv']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'malam', 'sctv']</t>
+          <t>['kumpulada']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['kumpulada']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19182</v>
+        <v>32019</v>
       </c>
       <c r="C49" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>anak muda lagi bergaya kluwih sunda authentic</t>
+          <t>apakah dia zafina</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['anak', 'muda', 'lagi', 'bergaya', 'kluwih', 'sunda', 'authentic']</t>
+          <t>['apakah', 'dia', 'zafina']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['apakah', 'dia', 'zafina']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['anak', 'muda', 'bergaya', 'kluwih', 'sunda', 'authentic']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['anak', 'muda', 'gaya', 'kluwih', 'sunda', 'authentic']</t>
+          <t>['zafina']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['zafina']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19183</v>
+        <v>32020</v>
       </c>
       <c r="C50" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>anak band di sctv now</t>
+          <t>anak scooter kebanyakan gaya</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'di', 'sctv', 'now']</t>
+          <t>['anak', 'scooter', 'kebanyakan', 'gaya']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['anak', 'scooter', 'kebanyakan', 'gaya']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'sctv', 'now']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'sctv', 'now']</t>
+          <t>['anak', 'scooter', 'kebanyakan', 'gaya']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['anak', 'scooter', 'banyak', 'gaya']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19184</v>
+        <v>32021</v>
       </c>
       <c r="C51" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>tiara wijaya yang nggak pernah akur anak band setiap hari jam di sctv</t>
+          <t>anak band malam ini di sctv</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['tiara', 'wijaya', 'yang', 'nggak', 'pernah', 'akur', 'anak', 'band', 'setiap', 'hari', 'jam', 'di', 'sctv']</t>
+          <t>['anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['anak', 'band', 'malam', 'ini', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['tiara', 'wijaya', 'nggak', 'akur', 'anak', 'band', 'jam', 'sctv']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['tiara', 'wijaya', 'nggak', 'akur', 'anak', 'band', 'jam', 'sctv']</t>
+          <t>['anak', 'band', 'malam', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'malam', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19185</v>
+        <v>32022</v>
       </c>
       <c r="C52" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>the junas wijaya sheila setiap hari jam di sctv</t>
+          <t>anak muda lagi bergaya kluwih sunda authentic</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['the', 'junas', 'wijaya', 'sheila', 'setiap', 'hari', 'jam', 'di', 'sctv']</t>
+          <t>['anak', 'muda', 'lagi', 'bergaya', 'kluwih', 'sunda', 'authentic']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['anak', 'muda', 'lagi', 'bergaya', 'kluwih', 'sunda', 'authentic']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['the', 'junas', 'wijaya', 'sheila', 'jam', 'sctv']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['the', 'junas', 'wijaya', 'sheila', 'jam', 'sctv']</t>
+          <t>['anak', 'muda', 'bergaya', 'kluwih', 'sunda', 'authentic']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['anak', 'muda', 'gaya', 'kluwih', 'sunda', 'authentic']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19186</v>
+        <v>32023</v>
       </c>
       <c r="C53" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>istri tercinta sore ini di sctv</t>
+          <t>anak band di sctv now</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['istri', 'tercinta', 'sore', 'ini', 'di', 'sctv']</t>
+          <t>['anak', 'band', 'di', 'sctv', 'now']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['anak', 'band', 'di', 'sctv', 'now']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['istri', 'tercinta', 'sore', 'sctv']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['istri', 'cinta', 'sore', 'sctv']</t>
+          <t>['anak', 'band', 'sctv', 'now']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'sctv', 'now']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19187</v>
+        <v>32024</v>
       </c>
       <c r="C54" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>kunci kenikmatan itu cuma satu jangan melihat kenikmatan orang lain gus baha</t>
+          <t>tiara wijaya yang nggak pernah akur anak band setiap hari jam di sctv</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['kunci', 'kenikmatan', 'itu', 'cuma', 'satu', 'jangan', 'melihat', 'kenikmatan', 'orang', 'lain', 'gus', 'baha']</t>
+          <t>['tiara', 'wijaya', 'yang', 'nggak', 'pernah', 'akur', 'anak', 'band', 'setiap', 'hari', 'jam', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['tiara', 'wijaya', 'yang', 'enggak', 'pernah', 'akur', 'anak', 'band', 'setiap', 'hari', 'jam', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['kunci', 'kenikmatan', 'kenikmatan', 'orang', 'gus', 'baha']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['kunci', 'nikmat', 'nikmat', 'orang', 'gus', 'baha']</t>
+          <t>['tiara', 'wijaya', 'akur', 'anak', 'band', 'jam', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['tiara', 'wijaya', 'akur', 'anak', 'band', 'jam', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19188</v>
+        <v>32025</v>
       </c>
       <c r="C55" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>anak band skuy</t>
+          <t>the junas wijaya sheila setiap hari jam di sctv</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'skuy']</t>
+          <t>['the', 'junas', 'wijaya', 'sheila', 'setiap', 'hari', 'jam', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['the', 'junas', 'wijaya', 'sheila', 'setiap', 'hari', 'jam', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'skuy']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'skuy']</t>
+          <t>['the', 'junas', 'wijaya', 'sheila', 'jam', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['the', 'junas', 'wijaya', 'sheila', 'jam', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19189</v>
+        <v>32026</v>
       </c>
       <c r="C56" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>istri tercinta di sctv now now now</t>
+          <t>istri tercinta sore ini di sctv</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['istri', 'tercinta', 'di', 'sctv', 'now', 'now', 'now']</t>
+          <t>['istri', 'tercinta', 'sore', 'ini', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 7 outcomes&gt;</t>
+          <t>['istri', 'tercinta', 'sore', 'ini', 'di', 'sctv']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['istri', 'tercinta', 'sctv', 'now', 'now', 'now']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['istri', 'cinta', 'sctv', 'now', 'now', 'now']</t>
+          <t>['istri', 'tercinta', 'sore', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['istri', 'cinta', 'sore', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19190</v>
+        <v>32027</v>
       </c>
       <c r="C57" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>episode anak band malam ini semakin makinnn sctv</t>
+          <t>kunci kenikmatan itu cuma satu jangan melihat kenikmatan orang lain gus baha</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['episode', 'anak', 'band', 'malam', 'ini', 'semakin', 'makinnn', 'sctv']</t>
+          <t>['kunci', 'kenikmatan', 'itu', 'cuma', 'satu', 'jangan', 'melihat', 'kenikmatan', 'orang', 'lain', 'gus', 'baha']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kunci', 'kenikmatan', 'itu', 'cuma', 'satu', 'jangan', 'melihat', 'kenikmatan', 'orang', 'lain', 'gus', 'baha']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['episode', 'anak', 'band', 'malam', 'makinnn', 'sctv']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['episode', 'anak', 'band', 'malam', 'makinnn', 'sctv']</t>
+          <t>['kunci', 'kenikmatan', 'kenikmatan', 'orang', 'gus', 'baha']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['kunci', 'nikmat', 'nikmat', 'orang', 'gus', 'baha']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19191</v>
+        <v>32028</v>
       </c>
       <c r="C58" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>semakin ceruu nihistri tercinta sctv</t>
+          <t>anak band skuy</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['semakin', 'ceruu', 'nihistri', 'tercinta', 'sctv']</t>
+          <t>['anak', 'band', 'skuy']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['anak', 'band', 'skuy']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['ceruu', 'nihistri', 'tercinta', 'sctv']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['ceruu', 'nihistri', 'cinta', 'sctv']</t>
+          <t>['anak', 'band', 'skuy']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'skuy']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19192</v>
+        <v>32029</v>
       </c>
       <c r="C59" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>anak band sctv now</t>
+          <t>istri tercinta di sctv now now now</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'sctv', 'now']</t>
+          <t>['istri', 'tercinta', 'di', 'sctv', 'now', 'now', 'now']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['istri', 'tercinta', 'di', 'sctv', 'now', 'now', 'now']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'sctv', 'now']</t>
+          <t>&lt;FreqDist with 5 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'sctv', 'now']</t>
+          <t>['istri', 'tercinta', 'sctv', 'now', 'now', 'now']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['istri', 'cinta', 'sctv', 'now', 'now', 'now']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19193</v>
+        <v>32030</v>
       </c>
       <c r="C60" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>istri tercinta sctv now</t>
+          <t>episode anak band malam ini semakin makinnn sctv</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['istri', 'tercinta', 'sctv', 'now']</t>
+          <t>['episode', 'anak', 'band', 'malam', 'ini', 'semakin', 'makinnn', 'sctv']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['episode', 'anak', 'band', 'malam', 'ini', 'semakin', 'makinnn', 'sctv']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['istri', 'tercinta', 'sctv', 'now']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['istri', 'cinta', 'sctv', 'now']</t>
+          <t>['episode', 'anak', 'band', 'malam', 'makinnn', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['episode', 'anak', 'band', 'malam', 'makinnn', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19194</v>
+        <v>32031</v>
       </c>
       <c r="C61" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>istri tercinta sctv</t>
+          <t>semakin ceruu nihistri tercinta sctv</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['istri', 'tercinta', 'sctv']</t>
+          <t>['semakin', 'ceruu', 'nihistri', 'tercinta', 'sctv']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['semakin', 'ceruu', 'nihistri', 'tercinta', 'sctv']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['istri', 'tercinta', 'sctv']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['istri', 'cinta', 'sctv']</t>
+          <t>['ceruu', 'nihistri', 'tercinta', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['ceruu', 'nihistri', 'cinta', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19195</v>
+        <v>32032</v>
       </c>
       <c r="C62" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>anak band now</t>
+          <t>anak band sctv now</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'now']</t>
+          <t>['anak', 'band', 'sctv', 'now']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['anak', 'band', 'sctv', 'now']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'now']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'now']</t>
+          <t>['anak', 'band', 'sctv', 'now']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'sctv', 'now']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19196</v>
+        <v>32033</v>
       </c>
       <c r="C63" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">       </t>
+          <t>istri tercinta sctv now</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['istri', 'tercinta', 'sctv', 'now']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['istri', 'tercinta', 'sctv', 'now']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['istri', 'tercinta', 'sctv', 'now']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['istri', 'cinta', 'sctv', 'now']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19197</v>
+        <v>32034</v>
       </c>
       <c r="C64" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>anak band di sctv malam ini</t>
+          <t>istri tercinta sctv</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'di', 'sctv', 'malam', 'ini']</t>
+          <t>['istri', 'tercinta', 'sctv']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['istri', 'tercinta', 'sctv']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'sctv', 'malam']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['anak', 'band', 'sctv', 'malam']</t>
+          <t>['istri', 'tercinta', 'sctv']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['istri', 'cinta', 'sctv']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19198</v>
+        <v>32035</v>
       </c>
       <c r="C65" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>selamat utk diagnos laboratorium yang sudah hadir di rs edelweiss soekarnohatta bandung sukses terus</t>
+          <t>anak band now</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['selamat', 'utk', 'diagnos', 'laboratorium', 'yang', 'sudah', 'hadir', 'di', 'rs', 'edelweiss', 'soekarnohatta', 'bandung', 'sukses', 'terus']</t>
+          <t>['anak', 'band', 'now']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['anak', 'band', 'now']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['selamat', 'diagnos', 'laboratorium', 'hadir', 'rs', 'edelweiss', 'soekarnohatta', 'bandung', 'sukses']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['selamat', 'diagnos', 'laboratorium', 'hadir', 'rs', 'edelweiss', 'soekarnohatta', 'bandung', 'sukses']</t>
+          <t>['anak', 'band', 'now']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'now']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19199</v>
+        <v>32036</v>
       </c>
       <c r="C66" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>bismillahirrahmanirrahim</t>
+          <t xml:space="preserve">       </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['bismillahirrahmanirrahim']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['bismillahirrahmanirrahim']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['bismillahirrahmanirrahim']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19200</v>
+        <v>32037</v>
       </c>
       <c r="C67" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>jaket ini menambah ke anuan gw jd naik beberapa level semoga brand lokal indonesia terus berjay</t>
+          <t>anak band di sctv malam ini</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['jaket', 'ini', 'menambah', 'ke', 'anuan', 'gw', 'jd', 'naik', 'beberapa', 'level', 'semoga', 'brand', 'lokal', 'indonesia', 'terus', 'berjay']</t>
+          <t>['anak', 'band', 'di', 'sctv', 'malam', 'ini']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['anak', 'band', 'di', 'sctv', 'malam', 'ini']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['jaket', 'menambah', 'anuan', 'gw', 'level', 'semoga', 'brand', 'lokal', 'indonesia', 'berjay']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['jaket', 'tambah', 'anu', 'gw', 'level', 'moga', 'brand', 'lokal', 'indonesia', 'berjay']</t>
+          <t>['anak', 'band', 'sctv', 'malam']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['anak', 'band', 'sctv', 'malam']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19201</v>
+        <v>32038</v>
       </c>
       <c r="C68" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>jepretan hari ini nunudatau</t>
+          <t>selamat utk diagnos laboratorium yang sudah hadir di rs edelweiss soekarnohatta bandung sukses terus</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['jepretan', 'hari', 'ini', 'nunudatau']</t>
+          <t>['selamat', 'utk', 'diagnos', 'laboratorium', 'yang', 'sudah', 'hadir', 'di', 'rs', 'edelweiss', 'soekarnohatta', 'bandung', 'sukses', 'terus']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['selamat', 'untuk', 'diagnos', 'laboratorium', 'yang', 'sudah', 'hadir', 'di', 'rumah, sakit', 'edelweiss', 'soekarnohatta', 'bandung', 'sukses', 'terus']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['jepretan', 'nunudatau']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['jepret', 'nunudatau']</t>
+          <t>['selamat', 'diagnos', 'laboratorium', 'hadir', 'rumah, sakit', 'edelweiss', 'soekarnohatta', 'bandung', 'sukses']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['selamat', 'diagnos', 'laboratorium', 'hadir', 'rumah sakit', 'edelweiss', 'soekarnohatta', 'bandung', 'sukses']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19202</v>
+        <v>32039</v>
       </c>
       <c r="C69" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>selamat ya mas buat wisuda sarjananyasemoga ilmu pengetahuan nya bisa memberikan berkah dan manfaat ya</t>
+          <t>bismillahirrahmanirrahim</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['selamat', 'ya', 'mas', 'buat', 'wisuda', 'sarjananyasemoga', 'ilmu', 'pengetahuan', 'nya', 'bisa', 'memberikan', 'berkah', 'dan', 'manfaat', 'ya']</t>
+          <t>['bismillahirrahmanirrahim']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['bismillahirrahmanirrahim']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['selamat', 'mas', 'wisuda', 'sarjananyasemoga', 'ilmu', 'pengetahuan', 'berkah', 'manfaat']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['selamat', 'mas', 'wisuda', 'sarjananyasemoga', 'ilmu', 'tahu', 'berkah', 'manfaat']</t>
+          <t>['bismillahirrahmanirrahim']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['bismillahirrahmanirrahim']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19203</v>
+        <v>32040</v>
       </c>
       <c r="C70" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>proud of you mas</t>
+          <t>jaket ini menambah ke anuan gw jd naik beberapa level semoga brand lokal indonesia terus berjay</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['proud', 'of', 'you', 'mas']</t>
+          <t>['jaket', 'ini', 'menambah', 'ke', 'anuan', 'gw', 'jd', 'naik', 'beberapa', 'level', 'semoga', 'brand', 'lokal', 'indonesia', 'terus', 'berjay']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['jaket', 'ini', 'menambah', 'ke', 'anuan', 'gue', 'jadi', 'naik', 'beberapa', 'level', 'semoga', 'merek', 'lokal', 'indonesia', 'terus', 'berjay']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['proud', 'of', 'you', 'mas']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['proud', 'of', 'you', 'mas']</t>
+          <t>['jaket', 'menambah', 'anuan', 'gue', 'level', 'semoga', 'merek', 'lokal', 'indonesia', 'berjay']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['jaket', 'tambah', 'anu', 'gue', 'level', 'moga', 'merek', 'lokal', 'indonesia', 'berjay']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19204</v>
+        <v>32041</v>
       </c>
       <c r="C71" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>seharian perut kosong dan lapar karena puasa pas waktu nya buka puasa dapat kiriman ayam betutu balikok bisa ta</t>
+          <t>jepretan hari ini nunudatau</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['seharian', 'perut', 'kosong', 'dan', 'lapar', 'karena', 'puasa', 'pas', 'waktu', 'nya', 'buka', 'puasa', 'dapat', 'kiriman', 'ayam', 'betutu', 'balikok', 'bisa', 'ta']</t>
+          <t>['jepretan', 'hari', 'ini', 'nunudatau']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['jepretan', 'hari', 'ini', 'nunudatau']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['seharian', 'perut', 'kosong', 'lapar', 'puasa', 'pas', 'buka', 'puasa', 'kiriman', 'ayam', 'betutu', 'balikok', 'ta']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['hari', 'perut', 'kosong', 'lapar', 'puasa', 'pas', 'buka', 'puasa', 'kirim', 'ayam', 'betutu', 'balikok', 'ta']</t>
+          <t>['jepretan', 'nunudatau']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['jepret', 'nunudatau']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19205</v>
+        <v>32042</v>
       </c>
       <c r="C72" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ngejar memory otot</t>
+          <t>selamat ya mas buat wisuda sarjananyasemoga ilmu pengetahuan nya bisa memberikan berkah dan manfaat ya</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['ngejar', 'memory', 'otot']</t>
+          <t>['selamat', 'ya', 'mas', 'buat', 'wisuda', 'sarjananyasemoga', 'ilmu', 'pengetahuan', 'nya', 'bisa', 'memberikan', 'berkah', 'dan', 'manfaat', 'ya']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['selamat', 'ya', 'mas', 'buat', 'wisuda', 'sarjananyasemoga', 'ilmu', 'pengetahuan', 'nya', 'bisa', 'memberikan', 'berkah', 'dan', 'manfaat', 'ya']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['ngejar', 'memory', 'otot']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['ngejar', 'memory', 'otot']</t>
+          <t>['selamat', 'mas', 'wisuda', 'sarjananyasemoga', 'ilmu', 'pengetahuan', 'berkah', 'manfaat']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['selamat', 'mas', 'wisuda', 'sarjananyasemoga', 'ilmu', 'tahu', 'berkah', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19206</v>
+        <v>32043</v>
       </c>
       <c r="C73" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>malming sambil nyruput kopi shot by</t>
+          <t>proud of you mas</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['malming', 'sambil', 'nyruput', 'kopi', 'shot', 'by']</t>
+          <t>['proud', 'of', 'you', 'mas']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['proud', 'of', 'kamu', 'mas']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['malming', 'nyruput', 'kopi', 'shot', 'by']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['malming', 'nyruput', 'kopi', 'shot', 'by']</t>
+          <t>['proud', 'of', 'mas']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['proud', 'of', 'mas']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19207</v>
+        <v>32044</v>
       </c>
       <c r="C74" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>guysss mau tanyaaa berapa lama sih kalian kalau mau medical check up tahun tahun atau jangan ga pernah ni</t>
+          <t>seharian perut kosong dan lapar karena puasa pas waktu nya buka puasa dapat kiriman ayam betutu balikok bisa ta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['guysss', 'mau', 'tanyaaa', 'berapa', 'lama', 'sih', 'kalian', 'kalau', 'mau', 'medical', 'check', 'up', 'tahun', 'tahun', 'atau', 'jangan', 'ga', 'pernah', 'ni']</t>
+          <t>['seharian', 'perut', 'kosong', 'dan', 'lapar', 'karena', 'puasa', 'pas', 'waktu', 'nya', 'buka', 'puasa', 'dapat', 'kiriman', 'ayam', 'betutu', 'balikok', 'bisa', 'ta']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['seharian', 'perut', 'kosong', 'dan', 'lapar', 'karena', 'puasa', 'pas', 'waktu', 'nya', 'buka', 'puasa', 'dapat', 'kiriman', 'ayam', 'betutu', 'balikok', 'bisa', 'ta']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['guysss', 'tanyaaa', 'medical', 'check', 'up', 'ni']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['guysss', 'tanyaaa', 'medical', 'check', 'up', 'ni']</t>
+          <t>['seharian', 'perut', 'kosong', 'lapar', 'puasa', 'pas', 'buka', 'puasa', 'kiriman', 'ayam', 'betutu', 'balikok', 'ta']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['hari', 'perut', 'kosong', 'lapar', 'puasa', 'pas', 'buka', 'puasa', 'kirim', 'ayam', 'betutu', 'balikok', 'ta']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19208</v>
+        <v>32045</v>
       </c>
       <c r="C75" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>berbuat baik pada orang yang berbuat baik pada kita itu orang fasik pun seperti itu maling juga seperti itu sama</t>
+          <t>ngejar memory otot</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['berbuat', 'baik', 'pada', 'orang', 'yang', 'berbuat', 'baik', 'pada', 'kita', 'itu', 'orang', 'fasik', 'pun', 'seperti', 'itu', 'maling', 'juga', 'seperti', 'itu', 'sama']</t>
+          <t>['ngejar', 'memory', 'otot']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 20 outcomes&gt;</t>
+          <t>['mengejar', 'memori', 'otot']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['berbuat', 'orang', 'berbuat', 'orang', 'fasik', 'maling']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['buat', 'orang', 'buat', 'orang', 'fasik', 'maling']</t>
+          <t>['mengejar', 'memori', 'otot']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['kejar', 'memori', 'otot']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19209</v>
+        <v>32046</v>
       </c>
       <c r="C76" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">      anakband</t>
+          <t>malming sambil nyruput kopi shot by</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['anakband']</t>
+          <t>['malming', 'sambil', 'nyruput', 'kopi', 'shot', 'by']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['malam, minggu', 'sambil', 'nyruput', 'kopi', 'shot', 'by']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['anakband']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['anakband']</t>
+          <t>['malam, minggu', 'nyruput', 'kopi', 'shot', 'by']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['malam minggu', 'nyruput', 'kopi', 'shot', 'by']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19210</v>
+        <v>32047</v>
       </c>
       <c r="C77" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>yeay kembali sudah bisa treatment di dermasterid dengan dokter andalanku dr mickdr nah kali ini karena masih</t>
+          <t>guysss mau tanyaaa berapa lama sih kalian kalau mau medical check up tahun tahun atau jangan ga pernah ni</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['yeay', 'kembali', 'sudah', 'bisa', 'treatment', 'di', 'dermasterid', 'dengan', 'dokter', 'andalanku', 'dr', 'mickdr', 'nah', 'kali', 'ini', 'karena', 'masih']</t>
+          <t>['guysss', 'mau', 'tanyaaa', 'berapa', 'lama', 'sih', 'kalian', 'kalau', 'mau', 'medical', 'check', 'up', 'tahun', 'tahun', 'atau', 'jangan', 'ga', 'pernah', 'ni']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['guysss', 'mau', 'tanyaaa', 'berapa', 'lama', 'sih', 'kalian', 'kalau', 'mau', 'medical', 'check', 'up', 'tahun', 'tahun', 'atau', 'jangan', 'tidak', 'pernah', 'nih']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['yeay', 'treatment', 'dermasterid', 'dokter', 'andalanku', 'dr', 'mickdr', 'kali']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['yeay', 'treatment', 'dermasterid', 'dokter', 'andal', 'dr', 'mickdr', 'kali']</t>
+          <t>['guysss', 'tanyaaa', 'medical', 'check', 'up']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['guysss', 'tanyaaa', 'medical', 'check', 'up']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19211</v>
+        <v>32048</v>
       </c>
       <c r="C78" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>hello gaess buat kalian yang cape abis lari dan butuh makanan untuk ngembaliin tenaga bisa datang ke pempekmasur</t>
+          <t>berbuat baik pada orang yang berbuat baik pada kita itu orang fasik pun seperti itu maling juga seperti itu sama</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['hello', 'gaess', 'buat', 'kalian', 'yang', 'cape', 'abis', 'lari', 'dan', 'butuh', 'makanan', 'untuk', 'ngembaliin', 'tenaga', 'bisa', 'datang', 'ke', 'pempekmasur']</t>
+          <t>['berbuat', 'baik', 'pada', 'orang', 'yang', 'berbuat', 'baik', 'pada', 'kita', 'itu', 'orang', 'fasik', 'pun', 'seperti', 'itu', 'maling', 'juga', 'seperti', 'itu', 'sama']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['berbuat', 'baik', 'pada', 'orang', 'yang', 'berbuat', 'baik', 'pada', 'kita', 'itu', 'orang', 'fasik', 'pun', 'seperti', 'itu', 'maling', 'juga', 'seperti', 'itu', 'sama']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['hello', 'gaess', 'cape', 'abis', 'lari', 'butuh', 'makanan', 'ngembaliin', 'tenaga', 'pempekmasur']</t>
+          <t>&lt;FreqDist with 13 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['hello', 'gaess', 'cape', 'abis', 'lari', 'butuh', 'makan', 'ngembaliin', 'tenaga', 'pempekmasur']</t>
+          <t>['berbuat', 'orang', 'berbuat', 'orang', 'fasik', 'maling']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['buat', 'orang', 'buat', 'orang', 'fasik', 'maling']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19212</v>
+        <v>32049</v>
       </c>
       <c r="C79" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ishd west java long live loyal to the club respect your brother proud of your vest</t>
+          <t xml:space="preserve">      anakband</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['ishd', 'west', 'java', 'long', 'live', 'loyal', 'to', 'the', 'club', 'respect', 'your', 'brother', 'proud', 'of', 'your', 'vest']</t>
+          <t>['anakband']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['anakband']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['ishd', 'west', 'java', 'long', 'live', 'loyal', 'to', 'the', 'club', 'respect', 'your', 'brother', 'proud', 'of', 'your', 'vest']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['ishd', 'west', 'java', 'long', 'live', 'loyal', 'to', 'the', 'club', 'respect', 'your', 'brother', 'proud', 'of', 'your', 'vest']</t>
+          <t>['anakband']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['anakband']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19213</v>
+        <v>32050</v>
       </c>
       <c r="C80" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>buat kalian yang mau liburan ke bandung cari tempat stay yang seru dingin dan banyak fasilitas tentunya buruan</t>
+          <t>yeay kembali sudah bisa treatment di dermasterid dengan dokter andalanku dr mickdr nah kali ini karena masih</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['buat', 'kalian', 'yang', 'mau', 'liburan', 'ke', 'bandung', 'cari', 'tempat', 'stay', 'yang', 'seru', 'dingin', 'dan', 'banyak', 'fasilitas', 'tentunya', 'buruan']</t>
+          <t>['yeay', 'kembali', 'sudah', 'bisa', 'treatment', 'di', 'dermasterid', 'dengan', 'dokter', 'andalanku', 'dr', 'mickdr', 'nah', 'kali', 'ini', 'karena', 'masih']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['yeay', 'kembali', 'sudah', 'bisa', 'treatment', 'di', 'dermasterid', 'dengan', 'dokter', 'andalanku', 'dari', 'mickdr', 'nah', 'kali', 'ini', 'karena', 'masih']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['liburan', 'bandung', 'cari', 'stay', 'seru', 'dingin', 'fasilitas', 'buruan']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['libur', 'bandung', 'cari', 'stay', 'seru', 'dingin', 'fasilitas', 'buru']</t>
+          <t>['yeay', 'treatment', 'dermasterid', 'dokter', 'andalanku', 'mickdr', 'kali']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['yeay', 'treatment', 'dermasterid', 'dokter', 'andal', 'mickdr', 'kali']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19214</v>
+        <v>32051</v>
       </c>
       <c r="C81" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>jadi sah jadi barista kopidesabestquality pendopo kabupaten sukabumi</t>
+          <t>hello gaess buat kalian yang cape abis lari dan butuh makanan untuk ngembaliin tenaga bisa datang ke pempekmasur</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['jadi', 'sah', 'jadi', 'barista', 'kopidesabestquality', 'pendopo', 'kabupaten', 'sukabumi']</t>
+          <t>['hello', 'gaess', 'buat', 'kalian', 'yang', 'cape', 'abis', 'lari', 'dan', 'butuh', 'makanan', 'untuk', 'ngembaliin', 'tenaga', 'bisa', 'datang', 'ke', 'pempekmasur']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['halo', 'guys', 'buat', 'kalian', 'yang', 'cape', 'habis', 'lari', 'dan', 'butuh', 'makanan', 'untuk', 'ngembaliin', 'tenaga', 'bisa', 'datang', 'ke', 'pempekmasur']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['sah', 'barista', 'kopidesabestquality', 'pendopo', 'kabupaten', 'sukabumi']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['sah', 'barista', 'kopidesabestquality', 'pendopo', 'kabupaten', 'sukabumi']</t>
+          <t>['halo', 'guys', 'cape', 'habis', 'lari', 'butuh', 'makanan', 'ngembaliin', 'tenaga', 'pempekmasur']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['halo', 'guys', 'cape', 'habis', 'lari', 'butuh', 'makan', 'ngembaliin', 'tenaga', 'pempekmasur']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19215</v>
+        <v>32052</v>
       </c>
       <c r="C82" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">tempat nya buat penikmat kopi di sukabumi kopidesabestquality excelsa robusta arabika gunung arabika wine </t>
+          <t>ishd west java long live loyal to the club respect your brother proud of your vest</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['tempat', 'nya', 'buat', 'penikmat', 'kopi', 'di', 'sukabumi', 'kopidesabestquality', 'excelsa', 'robusta', 'arabika', 'gunung', 'arabika', 'wine']</t>
+          <t>['ishd', 'west', 'java', 'long', 'live', 'loyal', 'to', 'the', 'club', 'respect', 'your', 'brother', 'proud', 'of', 'your', 'vest']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['ishd', 'west', 'java', 'long', 'live', 'loyal', 'to', 'the', 'club', 'respect', 'your', 'brother', 'proud', 'of', 'your', 'vest']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['penikmat', 'kopi', 'sukabumi', 'kopidesabestquality', 'excelsa', 'robusta', 'arabika', 'gunung', 'arabika', 'wine']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['nikmat', 'kopi', 'sukabumi', 'kopidesabestquality', 'excelsa', 'robusta', 'arabika', 'gunung', 'arabika', 'wine']</t>
+          <t>['ishd', 'west', 'java', 'long', 'live', 'loyal', 'to', 'the', 'club', 'respect', 'your', 'brother', 'proud', 'of', 'your', 'vest']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['ishd', 'west', 'java', 'long', 'live', 'loyal', 'to', 'the', 'club', 'respect', 'your', 'brother', 'proud', 'of', 'your', 'vest']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19216</v>
+        <v>32053</v>
       </c>
       <c r="C83" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>novitapetria</t>
+          <t>buat kalian yang mau liburan ke bandung cari tempat stay yang seru dingin dan banyak fasilitas tentunya buruan</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['novitapetria']</t>
+          <t>['buat', 'kalian', 'yang', 'mau', 'liburan', 'ke', 'bandung', 'cari', 'tempat', 'stay', 'yang', 'seru', 'dingin', 'dan', 'banyak', 'fasilitas', 'tentunya', 'buruan']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['buat', 'kalian', 'yang', 'mau', 'liburan', 'ke', 'bandung', 'cari', 'tempat', 'stay', 'yang', 'seru', 'dingin', 'dan', 'banyak', 'fasilitas', 'tentunya', 'buruan']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['novitapetria']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['novitapetria']</t>
+          <t>['liburan', 'bandung', 'cari', 'stay', 'seru', 'dingin', 'fasilitas', 'buruan']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['libur', 'bandung', 'cari', 'stay', 'seru', 'dingin', 'fasilitas', 'buru']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19217</v>
+        <v>32054</v>
       </c>
       <c r="C84" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>berkumis dan berjenggot</t>
+          <t>jadi sah jadi barista kopidesabestquality pendopo kabupaten sukabumi</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['berkumis', 'dan', 'berjenggot']</t>
+          <t>['jadi', 'sah', 'jadi', 'barista', 'kopidesabestquality', 'pendopo', 'kabupaten', 'sukabumi']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['jadi', 'sah', 'jadi', 'barista', 'kopidesabestquality', 'pendopo', 'kabupaten', 'sukabumi']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['berkumis', 'berjenggot']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['kumis', 'jenggot']</t>
+          <t>['sah', 'barista', 'kopidesabestquality', 'pendopo', 'kabupaten', 'sukabumi']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['sah', 'barista', 'kopidesabestquality', 'pendopo', 'kabupaten', 'sukabumi']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19218</v>
+        <v>32055</v>
       </c>
       <c r="C85" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>suatu subuh menjelang matahari terbit bumi perkemahan ranca upas ciwidey</t>
+          <t xml:space="preserve">tempat nya buat penikmat kopi di sukabumi kopidesabestquality excelsa robusta arabika gunung arabika wine </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['suatu', 'subuh', 'menjelang', 'matahari', 'terbit', 'bumi', 'perkemahan', 'ranca', 'upas', 'ciwidey']</t>
+          <t>['tempat', 'nya', 'buat', 'penikmat', 'kopi', 'di', 'sukabumi', 'kopidesabestquality', 'excelsa', 'robusta', 'arabika', 'gunung', 'arabika', 'wine']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['tempat', 'nya', 'buat', 'penikmat', 'kopi', 'di', 'sukabumi', 'kopidesabestquality', 'excelsa', 'robusta', 'arabika', 'gunung', 'arabika', 'wine']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['subuh', 'menjelang', 'matahari', 'terbit', 'bumi', 'perkemahan', 'ranca', 'upas', 'ciwidey']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['subuh', 'jelang', 'matahari', 'terbit', 'bumi', 'kemah', 'ranca', 'upas', 'ciwidey']</t>
+          <t>['penikmat', 'kopi', 'sukabumi', 'kopidesabestquality', 'excelsa', 'robusta', 'arabika', 'gunung', 'arabika', 'wine']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['nikmat', 'kopi', 'sukabumi', 'kopidesabestquality', 'excelsa', 'robusta', 'arabika', 'gunung', 'arabika', 'wine']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19219</v>
+        <v>32056</v>
       </c>
       <c r="C86" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>nyabtu ngemping ranca upas</t>
+          <t>novitapetria</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['nyabtu', 'ngemping', 'ranca', 'upas']</t>
+          <t>['novitapetria']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['novitapetria']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['nyabtu', 'ngemping', 'ranca', 'upas']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['nyabtu', 'ngemping', 'ranca', 'upas']</t>
+          <t>['novitapetria']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['novitapetria']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19220</v>
+        <v>32057</v>
       </c>
       <c r="C87" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>bersyukurlah tiada henti alhamdulillah dapat nikmat bisa isi bensin</t>
+          <t>berkumis dan berjenggot</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['bersyukurlah', 'tiada', 'henti', 'alhamdulillah', 'dapat', 'nikmat', 'bisa', 'isi', 'bensin']</t>
+          <t>['berkumis', 'dan', 'berjenggot']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['berkumis', 'dan', 'berjenggot']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['bersyukurlah', 'tiada', 'henti', 'alhamdulillah', 'nikmat', 'isi', 'bensin']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['syukur', 'tiada', 'henti', 'alhamdulillah', 'nikmat', 'isi', 'bensin']</t>
+          <t>['berkumis', 'berjenggot']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['kumis', 'jenggot']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19221</v>
+        <v>32058</v>
       </c>
       <c r="C88" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>thx bro firmanxroughrebel buat jaket kerennya sukses buat roughandrebel</t>
+          <t>suatu subuh menjelang matahari terbit bumi perkemahan ranca upas ciwidey</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['thx', 'bro', 'firmanxroughrebel', 'buat', 'jaket', 'kerennya', 'sukses', 'buat', 'roughandrebel']</t>
+          <t>['suatu', 'subuh', 'menjelang', 'matahari', 'terbit', 'bumi', 'perkemahan', 'ranca', 'upas', 'ciwidey']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['suatu', 'subuh', 'menjelang', 'matahari', 'terbit', 'bumi', 'perkemahan', 'ranca', 'upas', 'ciwidey']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['thx', 'bro', 'firmanxroughrebel', 'jaket', 'kerennya', 'sukses', 'roughandrebel']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['thx', 'bro', 'firmanxroughrebel', 'jaket', 'keren', 'sukses', 'roughandrebel']</t>
+          <t>['subuh', 'menjelang', 'matahari', 'terbit', 'bumi', 'perkemahan', 'ranca', 'upas', 'ciwidey']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['subuh', 'jelang', 'matahari', 'terbit', 'bumi', 'kemah', 'ranca', 'upas', 'ciwidey']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19222</v>
+        <v>32059</v>
       </c>
       <c r="C89" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ayo kembangkan bisnis kamu bersama genie cara mudah berjualan di berbagai platform hanya dari dashboard amp syste</t>
+          <t>nyabtu ngemping ranca upas</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['ayo', 'kembangkan', 'bisnis', 'kamu', 'bersama', 'genie', 'cara', 'mudah', 'berjualan', 'di', 'berbagai', 'platform', 'hanya', 'dari', 'dashboard', 'amp', 'syste']</t>
+          <t>['nyabtu', 'ngemping', 'ranca', 'upas']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['nyabtu', 'ngemping', 'ranca', 'upas']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['ayo', 'kembangkan', 'bisnis', 'genie', 'mudah', 'berjualan', 'platform', 'dashboard', 'syste']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['ayo', 'kembang', 'bisnis', 'genie', 'mudah', 'jual', 'platform', 'dashboard', 'syste']</t>
+          <t>['nyabtu', 'ngemping', 'ranca', 'upas']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['nyabtu', 'ngemping', 'ranca', 'upas']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19223</v>
+        <v>32060</v>
       </c>
       <c r="C90" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>thx bro bccb untuk ngobrol santai dan jamuannya sukses buat lalunebdg lalune coffee amp luncheonette</t>
+          <t>bersyukurlah tiada henti alhamdulillah dapat nikmat bisa isi bensin</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['thx', 'bro', 'bccb', 'untuk', 'ngobrol', 'santai', 'dan', 'jamuannya', 'sukses', 'buat', 'lalunebdg', 'lalune', 'coffee', 'amp', 'luncheonette']</t>
+          <t>['bersyukurlah', 'tiada', 'henti', 'alhamdulillah', 'dapat', 'nikmat', 'bisa', 'isi', 'bensin']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['bersyukurlah', 'tiada', 'henti', 'alhamdulillah', 'dapat', 'nikmat', 'bisa', 'isi', 'bensin']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['thx', 'bro', 'bccb', 'ngobrol', 'santai', 'jamuannya', 'sukses', 'lalunebdg', 'lalune', 'coffee', 'luncheonette']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['thx', 'bro', 'bccb', 'ngobrol', 'santai', 'jamu', 'sukses', 'lalunebdg', 'lalune', 'coffee', 'luncheonette']</t>
+          <t>['bersyukurlah', 'tiada', 'henti', 'alhamdulillah', 'nikmat', 'isi', 'bensin']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['syukur', 'tiada', 'henti', 'alhamdulillah', 'nikmat', 'isi', 'bensin']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19224</v>
+        <v>32061</v>
       </c>
       <c r="C91" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>melestarikan budaya bangsa adalah tugas kita semua untuk itu ikatan abang none jakarta membuat suatu pertunjukan te</t>
+          <t>thx bro firmanxroughrebel buat jaket kerennya sukses buat roughandrebel</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['melestarikan', 'budaya', 'bangsa', 'adalah', 'tugas', 'kita', 'semua', 'untuk', 'itu', 'ikatan', 'abang', 'none', 'jakarta', 'membuat', 'suatu', 'pertunjukan', 'te']</t>
+          <t>['thx', 'bro', 'firmanxroughrebel', 'buat', 'jaket', 'kerennya', 'sukses', 'buat', 'roughandrebel']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['terima, kasih', 'bro', 'firmanxroughrebel', 'buat', 'jaket', 'kerennya', 'sukses', 'buat', 'roughandrebel']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['melestarikan', 'budaya', 'bangsa', 'tugas', 'ikatan', 'abang', 'none', 'jakarta', 'pertunjukan', 'te']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['lestari', 'budaya', 'bangsa', 'tugas', 'ikat', 'abang', 'none', 'jakarta', 'tunjuk', 'te']</t>
+          <t>['terima, kasih', 'bro', 'firmanxroughrebel', 'jaket', 'kerennya', 'sukses', 'roughandrebel']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'bro', 'firmanxroughrebel', 'jaket', 'keren', 'sukses', 'roughandrebel']</t>
         </is>
       </c>
     </row>
@@ -3715,30 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19225</v>
+        <v>32062</v>
       </c>
       <c r="C92" t="n">
-        <v>233</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>ayo kembangkan bisnis kamu bersama genie cara mudah berjualan di berbagai platform hanya dari dashboard amp syste</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ayo', 'kembangkan', 'bisnis', 'kamu', 'bersama', 'genie', 'cara', 'mudah', 'berjualan', 'di', 'berbagai', 'platform', 'hanya', 'dari', 'dashboard', 'amp', 'syste']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['ayo', 'kembangkan', 'bisnis', 'kamu', 'bersama', 'genie', 'cara', 'mudah', 'berjualan', 'di', 'berbagai', 'platform', 'hanya', 'dari', 'dashboard', 'amp', 'syste']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ayo', 'kembangkan', 'bisnis', 'genie', 'mudah', 'berjualan', 'platform', 'dashboard', 'syste']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['ayo', 'kembang', 'bisnis', 'genie', 'mudah', 'jual', 'platform', 'dashboard', 'syste']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19226</v>
+        <v>32063</v>
       </c>
       <c r="C93" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>late lunch and nongkrii roughandrebel nolan like earth coffee</t>
+          <t>thx bro bccb untuk ngobrol santai dan jamuannya sukses buat lalunebdg lalune coffee amp luncheonette</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['late', 'lunch', 'and', 'nongkrii', 'roughandrebel', 'nolan', 'like', 'earth', 'coffee']</t>
+          <t>['thx', 'bro', 'bccb', 'untuk', 'ngobrol', 'santai', 'dan', 'jamuannya', 'sukses', 'buat', 'lalunebdg', 'lalune', 'coffee', 'amp', 'luncheonette']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['terima, kasih', 'bro', 'bccb', 'untuk', 'mengobrol', 'santai', 'dan', 'jamuannya', 'sukses', 'buat', 'lalunebdg', 'lalune', 'coffee', 'amp', 'luncheonette']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['late', 'lunch', 'and', 'nongkrii', 'roughandrebel', 'nolan', 'like', 'earth', 'coffee']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['late', 'lunch', 'and', 'nongkrii', 'roughandrebel', 'nol', 'like', 'earth', 'coffee']</t>
+          <t>['terima, kasih', 'bro', 'bccb', 'mengobrol', 'santai', 'jamuannya', 'sukses', 'lalunebdg', 'lalune', 'coffee', 'luncheonette']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'bro', 'bccb', 'obrol', 'santai', 'jamu', 'sukses', 'lalunebdg', 'lalune', 'coffee', 'luncheonette']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19227</v>
+        <v>32064</v>
       </c>
       <c r="C94" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>pic of the day</t>
+          <t>melestarikan budaya bangsa adalah tugas kita semua untuk itu ikatan abang none jakarta membuat suatu pertunjukan te</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['pic', 'of', 'the', 'day']</t>
+          <t>['melestarikan', 'budaya', 'bangsa', 'adalah', 'tugas', 'kita', 'semua', 'untuk', 'itu', 'ikatan', 'abang', 'none', 'jakarta', 'membuat', 'suatu', 'pertunjukan', 'te']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['melestarikan', 'budaya', 'bangsa', 'adalah', 'tugas', 'kita', 'semua', 'untuk', 'itu', 'ikatan', 'abang', 'none', 'jakarta', 'membuat', 'suatu', 'pertunjukan', 'te']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['pic', 'of', 'the', 'day']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['pic', 'of', 'the', 'day']</t>
+          <t>['melestarikan', 'budaya', 'bangsa', 'tugas', 'ikatan', 'abang', 'none', 'jakarta', 'pertunjukan', 'te']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['lestari', 'budaya', 'bangsa', 'tugas', 'ikat', 'abang', 'none', 'jakarta', 'tunjuk', 'te']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4293,35 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19228</v>
+        <v>32065</v>
       </c>
       <c r="C95" t="n">
-        <v>233</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>biar traveling aman akhirnya hari ini saya memberanikan diri untuk swab pcr dapat referensi dari teman kalau di</t>
-        </is>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['biar', 'traveling', 'aman', 'akhirnya', 'hari', 'ini', 'saya', 'memberanikan', 'diri', 'untuk', 'swab', 'pcr', 'dapat', 'referensi', 'dari', 'teman', 'kalau', 'di']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['traveling', 'aman', 'memberanikan', 'swab', 'pcr', 'referensi', 'teman']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['traveling', 'aman', 'berani', 'swab', 'pcr', 'referensi', 'teman']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19229</v>
+        <v>32066</v>
       </c>
       <c r="C96" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>braderr braderrr aing nolanvpishd</t>
+          <t>late lunch and nongkrii roughandrebel nolan like earth coffee</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['braderr', 'braderrr', 'aing', 'nolanvpishd']</t>
+          <t>['late', 'lunch', 'and', 'nongkrii', 'roughandrebel', 'nolan', 'like', 'earth', 'coffee']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['late', 'lunch', 'and', 'nongkrii', 'roughandrebel', 'nolan', 'like', 'earth', 'coffee']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['braderr', 'braderrr', 'aing', 'nolanvpishd']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['braderr', 'braderrr', 'aing', 'nolanvpishd']</t>
+          <t>['late', 'lunch', 'and', 'nongkrii', 'roughandrebel', 'nolan', 'like', 'earth', 'coffee']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['late', 'lunch', 'and', 'nongkrii', 'roughandrebel', 'nol', 'like', 'earth', 'coffee']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19230</v>
+        <v>32067</v>
       </c>
       <c r="C97" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>silaturahmi sama kakak keren maulananunu alisyakieb</t>
+          <t>pic of the day</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['silaturahmi', 'sama', 'kakak', 'keren', 'maulananunu', 'alisyakieb']</t>
+          <t>['pic', 'of', 'the', 'day']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['pic', 'of', 'the', 'day']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['silaturahmi', 'kakak', 'keren', 'maulananunu', 'alisyakieb']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['silaturahmi', 'kakak', 'keren', 'maulananunu', 'alisyakieb']</t>
+          <t>['pic', 'of', 'the', 'day']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['pic', 'of', 'the', 'day']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19231</v>
+        <v>32068</v>
       </c>
       <c r="C98" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>perlakukanlah orang dengan baik dan sebisa mungkin bantulah diakarena kita tidak akan pernah tau kalau kebaikan</t>
+          <t>biar traveling aman akhirnya hari ini saya memberanikan diri untuk swab pcr dapat referensi dari teman kalau di</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['perlakukanlah', 'orang', 'dengan', 'baik', 'dan', 'sebisa', 'mungkin', 'bantulah', 'diakarena', 'kita', 'tidak', 'akan', 'pernah', 'tau', 'kalau', 'kebaikan']</t>
+          <t>['biar', 'traveling', 'aman', 'akhirnya', 'hari', 'ini', 'saya', 'memberanikan', 'diri', 'untuk', 'swab', 'pcr', 'dapat', 'referensi', 'dari', 'teman', 'kalau', 'di']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['biar', 'traveling', 'aman', 'akhirnya', 'hari', 'ini', 'saya', 'memberanikan', 'diri', 'untuk', 'swab', 'pacar', 'dapat', 'referensi', 'dari', 'teman', 'kalau', 'di']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['perlakukanlah', 'orang', 'sebisa', 'bantulah', 'diakarena', 'kebaikan']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['laku', 'orang', 'bisa', 'bantu', 'diakarena', 'baik']</t>
+          <t>['traveling', 'aman', 'memberanikan', 'swab', 'pacar', 'referensi', 'teman']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['traveling', 'aman', 'berani', 'swab', 'pacar', 'referensi', 'teman']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19232</v>
+        <v>32069</v>
       </c>
       <c r="C99" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>happy birthday long live</t>
+          <t>braderr braderrr aing nolanvpishd</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['happy', 'birthday', 'long', 'live']</t>
+          <t>['braderr', 'braderrr', 'aing', 'nolanvpishd']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['braderr', 'braderrr', 'aku', 'nolanvpishd']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['happy', 'birthday', 'long', 'live']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['happy', 'birthday', 'long', 'live']</t>
+          <t>['braderr', 'braderrr', 'nolanvpishd']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['braderr', 'braderrr', 'nolanvpishd']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19233</v>
+        <v>32070</v>
       </c>
       <c r="C100" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">selamat hari raya idul fitri syawal </t>
+          <t>silaturahmi sama kakak keren maulananunu alisyakieb</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'raya', 'idul', 'fitri', 'syawal']</t>
+          <t>['silaturahmi', 'sama', 'kakak', 'keren', 'maulananunu', 'alisyakieb']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['silaturahmi', 'sama', 'kakak', 'keren', 'maulananunu', 'alisyakieb']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['selamat', 'raya', 'idul', 'fitri', 'syawal']</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['selamat', 'raya', 'idul', 'fitri', 'syawal']</t>
+          <t>['silaturahmi', 'kakak', 'keren', 'maulananunu', 'alisyakieb']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['silaturahmi', 'kakak', 'keren', 'maulananunu', 'alisyakieb']</t>
         </is>
       </c>
     </row>
@@ -4035,34 +4535,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19234</v>
+        <v>32071</v>
       </c>
       <c r="C101" t="n">
-        <v>233</v>
+        <v>371</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>nolanvpishd salmanbisyir</t>
+          <t>perlakukanlah orang dengan baik dan sebisa mungkin bantulah diakarena kita tidak akan pernah tau kalau kebaikan</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['nolanvpishd', 'salmanbisyir']</t>
+          <t>['perlakukanlah', 'orang', 'dengan', 'baik', 'dan', 'sebisa', 'mungkin', 'bantulah', 'diakarena', 'kita', 'tidak', 'akan', 'pernah', 'tau', 'kalau', 'kebaikan']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['perlakukanlah', 'orang', 'dengan', 'baik', 'dan', 'sebisa', 'mungkin', 'bantulah', 'diakarena', 'kita', 'tidak', 'akan', 'pernah', 'tau', 'kalau', 'kebaikan']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['nolanvpishd', 'salmanbisyir']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['nolanvpishd', 'salmanbisyir']</t>
+          <t>['perlakukanlah', 'orang', 'sebisa', 'bantulah', 'diakarena', 'kebaikan']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['laku', 'orang', 'bisa', 'bantu', 'diakarena', 'baik']</t>
         </is>
       </c>
     </row>
